--- a/output/fit_clients/fit_round_463.xlsx
+++ b/output/fit_clients/fit_round_463.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2051066786.215767</v>
+        <v>1646244718.057936</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1029176126403054</v>
+        <v>0.08887484249493963</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04060989621606576</v>
+        <v>0.03164181317624018</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1025533395.618946</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2133060872.991776</v>
+        <v>2495884288.840016</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1534554156243227</v>
+        <v>0.1486631011504295</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04040057444234164</v>
+        <v>0.0439226780161675</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1066530497.17646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4447609451.127204</v>
+        <v>4739597365.645159</v>
       </c>
       <c r="F4" t="n">
-        <v>0.103983616139007</v>
+        <v>0.1482388169573661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03834002767608632</v>
+        <v>0.03111853402536285</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>167</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2223804771.46796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3856499699.573238</v>
+        <v>4104404250.980488</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08799852821646603</v>
+        <v>0.07323794637408268</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04292511688978773</v>
+        <v>0.03624062668867142</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>171</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1928249862.966874</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1767748666.887977</v>
+        <v>2517532519.356719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09503375919039275</v>
+        <v>0.145794296264235</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03984384495030764</v>
+        <v>0.05158860528284556</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>88</v>
-      </c>
-      <c r="J6" t="n">
-        <v>883874388.1924297</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2201665155.252234</v>
+        <v>3109618847.247005</v>
       </c>
       <c r="F7" t="n">
-        <v>0.076318699829691</v>
+        <v>0.07384611618332776</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04864315220468429</v>
+        <v>0.04528959282302313</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>146</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1100832619.446466</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3257478677.784188</v>
+        <v>2768368121.347548</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1685912413919897</v>
+        <v>0.2092113249176604</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02277745836475939</v>
+        <v>0.0215491617890825</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>148</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1628739422.748801</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1865663175.43079</v>
+        <v>1652647616.107162</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1498561079662738</v>
+        <v>0.1562520747005472</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0347133551291712</v>
+        <v>0.02812269767789272</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>932831632.9865705</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4143350573.652784</v>
+        <v>3627869658.829454</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1764447530266349</v>
+        <v>0.1998777486089142</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04514125402707854</v>
+        <v>0.04690405489499878</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>195</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2071675319.810979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2667325949.167348</v>
+        <v>3194687324.602925</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1345344998212627</v>
+        <v>0.16815448623246</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04382765957316419</v>
+        <v>0.04152056048841425</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>192</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1333662894.399922</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2460561712.164269</v>
+        <v>2402520730.962943</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1705958367068182</v>
+        <v>0.1506511704199645</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03626108484745921</v>
+        <v>0.04084652614186784</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>157</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1230280824.725647</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3230872333.802505</v>
+        <v>4640533602.726266</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08963400585006548</v>
+        <v>0.08127368782877636</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01969723476883022</v>
+        <v>0.02110132720102971</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>156</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1615436260.915568</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2854694763.71384</v>
+        <v>3516388398.660246</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1493274938860449</v>
+        <v>0.1876656784209665</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03187944658343816</v>
+        <v>0.03115908436809219</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>148</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1427347426.838767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1312735263.786307</v>
+        <v>1188229351.917485</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1022204928589622</v>
+        <v>0.06723674211698884</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03376537347463405</v>
+        <v>0.03661658920977787</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>656367674.9644699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2168973160.18167</v>
+        <v>2906193256.41142</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1079542760792737</v>
+        <v>0.09367703937335974</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04952394074832622</v>
+        <v>0.05166135491880983</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>95</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1084486640.494578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4164960374.64301</v>
+        <v>4111467270.374983</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1283949921768986</v>
+        <v>0.15830107559831</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04754092451132907</v>
+        <v>0.04696625826762562</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2082480213.806471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2641307007.747793</v>
+        <v>3371344679.004642</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1689061585954323</v>
+        <v>0.1186654223565175</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02536531189232745</v>
+        <v>0.02458295912725618</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>152</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1320653560.084985</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1223071120.496697</v>
+        <v>1068823916.657608</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1606410177132964</v>
+        <v>0.1874503466080688</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02434468420544235</v>
+        <v>0.02485202561524936</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>611535643.8090945</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2652351150.257765</v>
+        <v>2484615416.266499</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1528233654325888</v>
+        <v>0.121691693077804</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02076619604927506</v>
+        <v>0.02804862075688618</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>64</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1326175532.008976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2137727790.349682</v>
+        <v>1899581651.260156</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1012783533033057</v>
+        <v>0.07723747615275274</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03610099769228316</v>
+        <v>0.03839796841436185</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1068863917.951919</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3423133002.439652</v>
+        <v>2615119349.100302</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1312983925078152</v>
+        <v>0.1412302727336155</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03905795659223979</v>
+        <v>0.05245414871082506</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1711566537.434729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1301147371.548282</v>
+        <v>1239772352.261251</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1686613136894064</v>
+        <v>0.170857742684754</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03958694866145528</v>
+        <v>0.05458521804966077</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>650573705.2321655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2629050422.470521</v>
+        <v>3830908195.763191</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09937263587833038</v>
+        <v>0.1471747448014867</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0372533262382139</v>
+        <v>0.03539348152255224</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>135</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1314525271.426791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>921389555.1886904</v>
+        <v>1148842626.600648</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0870262275614103</v>
+        <v>0.08216094786067396</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02248247198621454</v>
+        <v>0.03056501217233061</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>460694859.6766357</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1406230556.494437</v>
+        <v>1029774814.747613</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1227210909787443</v>
+        <v>0.08944887441585278</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03379271201557561</v>
+        <v>0.03305114978733492</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>703115349.7477773</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4485004723.353101</v>
+        <v>3539265650.230155</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1169912844607956</v>
+        <v>0.1544852729201289</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01956844790338825</v>
+        <v>0.02210992264790092</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>108</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2242502347.746577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3681107966.221667</v>
+        <v>3473597529.439006</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09926760737600379</v>
+        <v>0.09611850588414185</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03809128038307386</v>
+        <v>0.03160046721502372</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>148</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1840554053.509339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5147965468.938532</v>
+        <v>4449855191.90365</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1318247618199601</v>
+        <v>0.09760794220574157</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03047215166641637</v>
+        <v>0.02887922177456628</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>205</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2573982671.780293</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1781536983.429501</v>
+        <v>2263797998.953665</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1279592266124695</v>
+        <v>0.1284471248092935</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03390481057184482</v>
+        <v>0.02996621199235539</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>890768504.2870619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>977815827.7862988</v>
+        <v>1424441940.438748</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07501834147848713</v>
+        <v>0.0748116711646309</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04671173804207831</v>
+        <v>0.05193887598497474</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>488907917.6768287</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1682671062.133114</v>
+        <v>1285773876.939544</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08728595474211581</v>
+        <v>0.08029277671119907</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0289363412790708</v>
+        <v>0.02751535207010462</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>841335637.2698433</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2017229524.480669</v>
+        <v>2258604865.106467</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2046953024697764</v>
+        <v>0.1914535297023608</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0578262719379167</v>
+        <v>0.03702644822062334</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>142</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1008614841.573653</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1289725235.080581</v>
+        <v>1437983786.188482</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08834207775179138</v>
+        <v>0.09170160643757155</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01872462097590168</v>
+        <v>0.02376347985838414</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>644862607.8840226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1024568442.261128</v>
+        <v>1137212225.845035</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08185706935255849</v>
+        <v>0.1110441008226821</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03469232458563658</v>
+        <v>0.02865218373806034</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>512284234.3430699</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2196612832.707687</v>
+        <v>2773632855.826959</v>
       </c>
       <c r="F36" t="n">
-        <v>0.124005394456001</v>
+        <v>0.1255802674980094</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02653420263624512</v>
+        <v>0.02479792871092192</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>117</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1098306462.63695</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1835476408.960696</v>
+        <v>2011816223.848219</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1082166693198461</v>
+        <v>0.08269602028291047</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02752441354347113</v>
+        <v>0.03965370391953942</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>125</v>
-      </c>
-      <c r="J37" t="n">
-        <v>917738209.1378117</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1509214800.039212</v>
+        <v>1724404189.978543</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08726852340686912</v>
+        <v>0.1226212612169483</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03982368857189277</v>
+        <v>0.0252012556323424</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>754607447.9903823</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1594708879.333167</v>
+        <v>1645248280.665095</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1581756884247592</v>
+        <v>0.1218567322833891</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02225551992067211</v>
+        <v>0.03271244792683003</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>797354495.7303432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1207853257.986001</v>
+        <v>1146041550.906118</v>
       </c>
       <c r="F40" t="n">
-        <v>0.130835137265162</v>
+        <v>0.1574685389237009</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05944851029897009</v>
+        <v>0.06000150452250137</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>603926668.3486567</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2449597783.842911</v>
+        <v>2236467329.633245</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1623074511732595</v>
+        <v>0.1313050065316396</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03219858709553153</v>
+        <v>0.03200198479211484</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>112</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1224798922.11841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4142951354.144693</v>
+        <v>3624819420.549895</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08195191420114051</v>
+        <v>0.08028636338037483</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03564554248015691</v>
+        <v>0.03672572957603069</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>151</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2071475716.207456</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2303148752.289498</v>
+        <v>2809169010.050884</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1975000916250331</v>
+        <v>0.1665732546567424</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02147182163061762</v>
+        <v>0.01766367589473681</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>162</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1151574444.628157</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1603792204.12605</v>
+        <v>2354136254.863456</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07657791204875657</v>
+        <v>0.06736849531822596</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0333942808284475</v>
+        <v>0.0358311427685432</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>801896129.363668</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1654611700.362465</v>
+        <v>1836442943.319733</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1372824057757915</v>
+        <v>0.1320915546097854</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0366413214925709</v>
+        <v>0.04044835261072814</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>827305806.2628378</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5375998118.594821</v>
+        <v>4599366994.932176</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1747713753821454</v>
+        <v>0.1605407070517664</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04476393348762113</v>
+        <v>0.04682930151947443</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>165</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2687999107.673877</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3398453907.794226</v>
+        <v>3192444002.437763</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1755692801880993</v>
+        <v>0.1247143689594212</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05866696396849231</v>
+        <v>0.04043869413989935</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1699226919.006618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3472042476.953159</v>
+        <v>3463828209.674637</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06772137696262562</v>
+        <v>0.08287781268463412</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03473276088046203</v>
+        <v>0.02864116765063124</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>151</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1736021303.583788</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1697161526.036489</v>
+        <v>1778848818.552661</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1708395481548875</v>
+        <v>0.1594110369618514</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04145302580761184</v>
+        <v>0.03914473965192173</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>848580764.4189658</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2539515090.263866</v>
+        <v>3160720984.882238</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1142856168412719</v>
+        <v>0.1759411418963764</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03840651244980942</v>
+        <v>0.04890025279542996</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>158</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1269757637.762009</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1309560948.072034</v>
+        <v>1333060903.041218</v>
       </c>
       <c r="F51" t="n">
-        <v>0.149687790766581</v>
+        <v>0.1862169136686293</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04577996921124632</v>
+        <v>0.04204816101674844</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>654780507.8586072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3207894612.523065</v>
+        <v>5010248811.313898</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08391974271747477</v>
+        <v>0.1073540638200684</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04063427109521623</v>
+        <v>0.05185813334906635</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>191</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1603947409.374829</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2826890377.34769</v>
+        <v>2672146067.784105</v>
       </c>
       <c r="F53" t="n">
-        <v>0.151045676789871</v>
+        <v>0.1256616649689685</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02887544431324156</v>
+        <v>0.03015983385935965</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>133</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1413445233.109679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3722862441.720936</v>
+        <v>3685533893.424718</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1306223762439706</v>
+        <v>0.1477770023793034</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04217545645307452</v>
+        <v>0.04214391640801123</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>150</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1861431263.201316</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4216524326.52485</v>
+        <v>4596195514.900909</v>
       </c>
       <c r="F55" t="n">
-        <v>0.183631223382805</v>
+        <v>0.2190256695944136</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02080750266343536</v>
+        <v>0.02415267941004045</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>131</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2108262147.777264</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1599956351.897108</v>
+        <v>1697882190.361424</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1063553289027027</v>
+        <v>0.1290142266220244</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05376210043474366</v>
+        <v>0.04446929412057841</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>799978203.4313619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3377729232.161659</v>
+        <v>3654710027.599292</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1692788495578907</v>
+        <v>0.1363360459302944</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02728925582573577</v>
+        <v>0.01739896046025087</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>147</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1688864652.221346</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1624154445.683223</v>
+        <v>1896226629.602132</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1244358578950191</v>
+        <v>0.1361159557041942</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03439800050085225</v>
+        <v>0.03733343313191514</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>812077242.6795137</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4975973287.097015</v>
+        <v>4975379210.94416</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1014304666561005</v>
+        <v>0.09050588550282405</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03635453221257254</v>
+        <v>0.03708136213160073</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2487986572.448183</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3537288372.727724</v>
+        <v>2978317596.567532</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1684339856724439</v>
+        <v>0.1735729533616212</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03065511526421491</v>
+        <v>0.03323686165992858</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1768644313.09274</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2752034443.368048</v>
+        <v>3354574770.892067</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1576103805648351</v>
+        <v>0.150426307801376</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02419775813648278</v>
+        <v>0.0304040823068205</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>158</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1376017225.553345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1351506505.060118</v>
+        <v>1567901576.781103</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1214031622902622</v>
+        <v>0.1793143556165718</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0455431045527588</v>
+        <v>0.04497457066264987</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>675753213.3512665</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4827508461.038346</v>
+        <v>3451145844.857798</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0908004605186622</v>
+        <v>0.07267311715128093</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04541423621476066</v>
+        <v>0.04579886967903905</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>134</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2413754255.988428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4425869746.989573</v>
+        <v>4382398997.524114</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1732126082937115</v>
+        <v>0.1423232714723406</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0251077480976709</v>
+        <v>0.02377352696474363</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>144</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2212934939.33533</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5534974118.072915</v>
+        <v>4691051201.775691</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1127121151621451</v>
+        <v>0.1223718765000847</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02241556426987223</v>
+        <v>0.02540998721173623</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>166</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2767486986.039669</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4127365635.691797</v>
+        <v>3734607071.44125</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1560464671123547</v>
+        <v>0.1346104462526329</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03780480834425135</v>
+        <v>0.04927148678954057</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>135</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2063682798.312006</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2903480402.574449</v>
+        <v>2947587519.476144</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1012457850591907</v>
+        <v>0.06639343717045738</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04383287899580261</v>
+        <v>0.05019691198707936</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>149</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1451740227.746646</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3963476583.099723</v>
+        <v>3702693439.061096</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1139444261180619</v>
+        <v>0.09710005870816597</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04027604980091139</v>
+        <v>0.03577685037521319</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>148</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1981738285.147393</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2004325245.665036</v>
+        <v>2341356555.859249</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1186713803311859</v>
+        <v>0.1575941560952577</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04610068231147834</v>
+        <v>0.05042487861088887</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1002162628.346283</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2934390380.289631</v>
+        <v>3345267878.493013</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1028923059730438</v>
+        <v>0.08514842467713279</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02994496512181441</v>
+        <v>0.04606652707138775</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>133</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1467195162.863345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4377017749.230648</v>
+        <v>4574868890.714503</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1261302170877324</v>
+        <v>0.126626644960705</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02633542203780156</v>
+        <v>0.02766733394737544</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>169</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2188508933.834138</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2229844701.528526</v>
+        <v>2101156973.91368</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1068451077776029</v>
+        <v>0.1016598375559541</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03260859011864419</v>
+        <v>0.03227725166515227</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1114922260.057061</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2944240809.601372</v>
+        <v>3186573846.531198</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07589705045754164</v>
+        <v>0.09371373304485929</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03358351820483659</v>
+        <v>0.04362090014025193</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>174</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1472120405.905761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3322998348.968638</v>
+        <v>2634409885.992852</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1565292964611323</v>
+        <v>0.1642422121654801</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03036988263058031</v>
+        <v>0.03391786582861051</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>158</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1661499211.945779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1952530728.111189</v>
+        <v>1859536898.002875</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1399878278238285</v>
+        <v>0.113910056556506</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02730623922593171</v>
+        <v>0.02478374741799907</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>976265332.6607534</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3824909821.606818</v>
+        <v>3922926868.158531</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1146878940737705</v>
+        <v>0.08654209848189677</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02829276161237623</v>
+        <v>0.02153682808620191</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1912454888.213439</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1842074626.544779</v>
+        <v>2302004685.626454</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1440155403430069</v>
+        <v>0.1676368209587076</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02752889574698211</v>
+        <v>0.02096162183269327</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>921037351.4709977</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3792972081.594076</v>
+        <v>3233309734.531551</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09763100486242897</v>
+        <v>0.09953708429865103</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04952616628668229</v>
+        <v>0.04257267874459002</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>161</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1896486021.362405</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1891286715.927168</v>
+        <v>1219992275.024003</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1667213447703423</v>
+        <v>0.1756151915326125</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03864303115208088</v>
+        <v>0.02858409207653206</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>945643460.647673</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4396265282.811782</v>
+        <v>3837370198.533649</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09612598340017059</v>
+        <v>0.09110660253198172</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02918068521425039</v>
+        <v>0.03756471459432398</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2198132660.589201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3478424310.949291</v>
+        <v>4156037087.118185</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1254213592898455</v>
+        <v>0.1030617402401862</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02262769176228191</v>
+        <v>0.02870457811312733</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1739212099.347509</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4129842203.04243</v>
+        <v>4610805484.515959</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1650579520047108</v>
+        <v>0.1635756172980616</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02031742408170494</v>
+        <v>0.0264342727001246</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>162</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2064921134.056379</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2481003020.941087</v>
+        <v>2385572741.170343</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1555380984661509</v>
+        <v>0.1351238922000322</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03979200324600023</v>
+        <v>0.03030649122971421</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1240501555.671775</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2094149236.928742</v>
+        <v>1909629234.872214</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07434110368082936</v>
+        <v>0.07402242537261208</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03369552240127608</v>
+        <v>0.03668269617534394</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1047074609.752596</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2303446772.78007</v>
+        <v>2688147558.855051</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1795140658517985</v>
+        <v>0.1685855742318124</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03762947795244088</v>
+        <v>0.03911539973799676</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>173</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1151723369.663265</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2302234278.284461</v>
+        <v>2633304898.301256</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1329613351276646</v>
+        <v>0.1353407900885531</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02504040927224517</v>
+        <v>0.01751749907712732</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>57</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1151117208.820592</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1302361056.890823</v>
+        <v>1006208710.752246</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1435573503682919</v>
+        <v>0.1783330494436264</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03251945928952679</v>
+        <v>0.03710361237152564</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>651180610.3028551</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3039341027.253631</v>
+        <v>3596832170.988982</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1565479461968383</v>
+        <v>0.1241356587736531</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03286711051141225</v>
+        <v>0.03806977302026537</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>184</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1519670547.982918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3218560217.264918</v>
+        <v>3408952933.564991</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1602664624476285</v>
+        <v>0.1411313042663085</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02865705292961613</v>
+        <v>0.04121206221511901</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>156</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1609280130.741482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1956657906.198837</v>
+        <v>2085395457.302927</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09465911753992527</v>
+        <v>0.09730407473395448</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05532402979854209</v>
+        <v>0.05354392102072454</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>978329015.4024371</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1705836582.821079</v>
+        <v>1861964390.947494</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1723635096012746</v>
+        <v>0.1193175560583081</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05346154678552571</v>
+        <v>0.04026870103412961</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>852918302.9110518</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2032333303.762629</v>
+        <v>2125776445.699623</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1022304257063769</v>
+        <v>0.09152612166282562</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04618295231658299</v>
+        <v>0.03266837587836283</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>127</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1016166600.49991</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4178282835.496923</v>
+        <v>3670196746.193254</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09636205846159841</v>
+        <v>0.140242723902486</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04070206002276909</v>
+        <v>0.05054015942030024</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2089141406.838702</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2454994638.81939</v>
+        <v>1952857938.681268</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1133143354672076</v>
+        <v>0.1230197329769243</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03850911230518324</v>
+        <v>0.03565864793298942</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1227497376.986151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2834979772.294669</v>
+        <v>3283474569.598498</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09675659436282086</v>
+        <v>0.08575182092879684</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03915943717056063</v>
+        <v>0.05264841702270752</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>110</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1417489897.904139</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2082169283.624938</v>
+        <v>1921238858.423716</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1235610309192289</v>
+        <v>0.1029165488949959</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04174943341777432</v>
+        <v>0.04294817521245701</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1041084620.029182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4492079445.092236</v>
+        <v>5068838928.683852</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1385778697011348</v>
+        <v>0.1297674350015325</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01902147363588214</v>
+        <v>0.02370710871298325</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>149</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2246039818.529351</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2782833094.602735</v>
+        <v>3384107966.741431</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1294394543758988</v>
+        <v>0.08626735091078064</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02678767530171204</v>
+        <v>0.02434919186655396</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>123</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1391416517.272523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2110082372.750067</v>
+        <v>2074009920.644753</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1013366862291861</v>
+        <v>0.1011108484295695</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02535613846804018</v>
+        <v>0.02214334458735883</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>146</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1055041107.87783</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3895282164.668669</v>
+        <v>2952522947.662098</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1486235137469917</v>
+        <v>0.1557452128838638</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0268021511535995</v>
+        <v>0.01956397410072849</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>141</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1947641144.67714</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2737903693.885281</v>
+        <v>2904885073.283083</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1457698319127579</v>
+        <v>0.1841357950638743</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0556366288114508</v>
+        <v>0.04011144262481636</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>190</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1368951901.358123</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_463.xlsx
+++ b/output/fit_clients/fit_round_463.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1646244718.057936</v>
+        <v>1895791920.049015</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08887484249493963</v>
+        <v>0.1024475733437897</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03164181317624018</v>
+        <v>0.04222610733802613</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2495884288.840016</v>
+        <v>2348139500.301948</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1486631011504295</v>
+        <v>0.1770756278526745</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0439226780161675</v>
+        <v>0.0447863625328914</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4739597365.645159</v>
+        <v>5038227316.975981</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1482388169573661</v>
+        <v>0.1047158421336495</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03111853402536285</v>
+        <v>0.02934737385418087</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4104404250.980488</v>
+        <v>3377082656.467913</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07323794637408268</v>
+        <v>0.09889622900037616</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03624062668867142</v>
+        <v>0.04857934159289683</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2517532519.356719</v>
+        <v>2396494880.414517</v>
       </c>
       <c r="F6" t="n">
-        <v>0.145794296264235</v>
+        <v>0.1212613978431556</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05158860528284556</v>
+        <v>0.04870689769165267</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3109618847.247005</v>
+        <v>3050449740.417223</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07384611618332776</v>
+        <v>0.1010226677267941</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04528959282302313</v>
+        <v>0.04713414459294428</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2768368121.347548</v>
+        <v>2720187614.494905</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2092113249176604</v>
+        <v>0.2204468245538005</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0215491617890825</v>
+        <v>0.02329036218558427</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1652647616.107162</v>
+        <v>1555081132.069432</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1562520747005472</v>
+        <v>0.1216862810426904</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02812269767789272</v>
+        <v>0.03322478469457799</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3627869658.829454</v>
+        <v>5371335677.330406</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1998777486089142</v>
+        <v>0.1853191144069247</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04690405489499878</v>
+        <v>0.05331998241285667</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3194687324.602925</v>
+        <v>3175487295.020377</v>
       </c>
       <c r="F11" t="n">
-        <v>0.16815448623246</v>
+        <v>0.1368431149342211</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04152056048841425</v>
+        <v>0.04614519977006748</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2402520730.962943</v>
+        <v>2688933334.790003</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1506511704199645</v>
+        <v>0.1488412079482642</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04084652614186784</v>
+        <v>0.03517633021742006</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4640533602.726266</v>
+        <v>3638651604.616383</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08127368782877636</v>
+        <v>0.08591612369671346</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02110132720102971</v>
+        <v>0.02540299775890488</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3516388398.660246</v>
+        <v>2450877879.291343</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1876656784209665</v>
+        <v>0.164522191088516</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03115908436809219</v>
+        <v>0.03302886518030341</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1188229351.917485</v>
+        <v>1669316948.690277</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06723674211698884</v>
+        <v>0.07747954085906865</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03661658920977787</v>
+        <v>0.0412464305839721</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2906193256.41142</v>
+        <v>2441885662.888132</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09367703937335974</v>
+        <v>0.07842949490423076</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05166135491880983</v>
+        <v>0.03609749761484958</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4111467270.374983</v>
+        <v>4522268660.150842</v>
       </c>
       <c r="F17" t="n">
-        <v>0.15830107559831</v>
+        <v>0.1400596253936497</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04696625826762562</v>
+        <v>0.03557457685528487</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3371344679.004642</v>
+        <v>3985436916.147211</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1186654223565175</v>
+        <v>0.1817127619691545</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02458295912725618</v>
+        <v>0.02412139589075431</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1068823916.657608</v>
+        <v>1239130740.37915</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1874503466080688</v>
+        <v>0.1752084329810498</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02485202561524936</v>
+        <v>0.02657793713491917</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2484615416.266499</v>
+        <v>1962264281.335948</v>
       </c>
       <c r="F20" t="n">
-        <v>0.121691693077804</v>
+        <v>0.1402633082988519</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02804862075688618</v>
+        <v>0.02442708220170819</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1899581651.260156</v>
+        <v>1860032420.715186</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07723747615275274</v>
+        <v>0.08396272254275206</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03839796841436185</v>
+        <v>0.04233963039941788</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2615119349.100302</v>
+        <v>3876942050.489416</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1412302727336155</v>
+        <v>0.1053675358664788</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05245414871082506</v>
+        <v>0.03886482408221513</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1239772352.261251</v>
+        <v>1544724092.354925</v>
       </c>
       <c r="F23" t="n">
-        <v>0.170857742684754</v>
+        <v>0.1580893376488048</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05458521804966077</v>
+        <v>0.05196130311586855</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3830908195.763191</v>
+        <v>2557808441.049157</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1471747448014867</v>
+        <v>0.1021519462569928</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03539348152255224</v>
+        <v>0.02718389878682223</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1148842626.600648</v>
+        <v>1402334703.309832</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08216094786067396</v>
+        <v>0.07686096550707275</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03056501217233061</v>
+        <v>0.02085683419362219</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1029774814.747613</v>
+        <v>1064381364.656268</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08944887441585278</v>
+        <v>0.08896087909690191</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03305114978733492</v>
+        <v>0.02453783621494207</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3539265650.230155</v>
+        <v>4657641536.963583</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1544852729201289</v>
+        <v>0.1195376107759565</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02210992264790092</v>
+        <v>0.02639624131758332</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3473597529.439006</v>
+        <v>2551626043.032742</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09611850588414185</v>
+        <v>0.1152988095251131</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03160046721502372</v>
+        <v>0.03700139097754211</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4449855191.90365</v>
+        <v>3737419673.244658</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09760794220574157</v>
+        <v>0.09858831330752525</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02887922177456628</v>
+        <v>0.04139982775444379</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2263797998.953665</v>
+        <v>2140037253.343286</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1284471248092935</v>
+        <v>0.1175932545286703</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02996621199235539</v>
+        <v>0.02977783080894001</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1424441940.438748</v>
+        <v>1079693335.332525</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0748116711646309</v>
+        <v>0.09488861557746861</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05193887598497474</v>
+        <v>0.03520880519189277</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1285773876.939544</v>
+        <v>1653945306.661008</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08029277671119907</v>
+        <v>0.1094802157411904</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02751535207010462</v>
+        <v>0.02465750396343744</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2258604865.106467</v>
+        <v>2130843115.004111</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1914535297023608</v>
+        <v>0.1363706833439387</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03702644822062334</v>
+        <v>0.04372205092498634</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1437983786.188482</v>
+        <v>1210293784.669534</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09170160643757155</v>
+        <v>0.09839754808683533</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02376347985838414</v>
+        <v>0.02489622248075394</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1137212225.845035</v>
+        <v>821219143.223812</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1110441008226821</v>
+        <v>0.09612328675341585</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02865218373806034</v>
+        <v>0.03730849168106384</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2773632855.826959</v>
+        <v>2108743728.316723</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1255802674980094</v>
+        <v>0.1349326512187376</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02479792871092192</v>
+        <v>0.02645433992838309</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2011816223.848219</v>
+        <v>1857485820.114621</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08269602028291047</v>
+        <v>0.1094855298786076</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03965370391953942</v>
+        <v>0.02936640512728228</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1724404189.978543</v>
+        <v>1701668581.502661</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1226212612169483</v>
+        <v>0.09838826492434841</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0252012556323424</v>
+        <v>0.03694382485926838</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1645248280.665095</v>
+        <v>2052393497.4646</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1218567322833891</v>
+        <v>0.1745063994196413</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03271244792683003</v>
+        <v>0.03117275025682934</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1146041550.906118</v>
+        <v>1541280075.828133</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1574685389237009</v>
+        <v>0.1031737585827477</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06000150452250137</v>
+        <v>0.04731042866153597</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2236467329.633245</v>
+        <v>2724957605.351949</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1313050065316396</v>
+        <v>0.1324843871754244</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03200198479211484</v>
+        <v>0.04233961845395919</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3624819420.549895</v>
+        <v>3419974838.330627</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08028636338037483</v>
+        <v>0.081695163865902</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03672572957603069</v>
+        <v>0.0411763637266274</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2809169010.050884</v>
+        <v>2582441337.254377</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1665732546567424</v>
+        <v>0.1607474277530587</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01766367589473681</v>
+        <v>0.02462063534245599</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2354136254.863456</v>
+        <v>2177539413.783906</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06736849531822596</v>
+        <v>0.07050826593875742</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0358311427685432</v>
+        <v>0.03200696195558259</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1836442943.319733</v>
+        <v>1797814108.230571</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1320915546097854</v>
+        <v>0.156794083567162</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04044835261072814</v>
+        <v>0.04293621863659607</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4599366994.932176</v>
+        <v>4729776739.691221</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1605407070517664</v>
+        <v>0.1694341567408342</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04682930151947443</v>
+        <v>0.0501957814098738</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3192444002.437763</v>
+        <v>4699696550.298951</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1247143689594212</v>
+        <v>0.1898371669636825</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04043869413989935</v>
+        <v>0.03959247499848411</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3463828209.674637</v>
+        <v>3699152835.296299</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08287781268463412</v>
+        <v>0.07765622049763157</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02864116765063124</v>
+        <v>0.03358939998446858</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1778848818.552661</v>
+        <v>1256537940.569785</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1594110369618514</v>
+        <v>0.1456037878095961</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03914473965192173</v>
+        <v>0.04430891958430815</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3160720984.882238</v>
+        <v>2919210573.937992</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1759411418963764</v>
+        <v>0.1680971686546579</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04890025279542996</v>
+        <v>0.03428519736373421</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1333060903.041218</v>
+        <v>1233413965.978467</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1862169136686293</v>
+        <v>0.1919465393814488</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04204816101674844</v>
+        <v>0.04802091377514452</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5010248811.313898</v>
+        <v>4564721019.258837</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1073540638200684</v>
+        <v>0.1034447225989318</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05185813334906635</v>
+        <v>0.04874716915655228</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2672146067.784105</v>
+        <v>2840607634.953419</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1256616649689685</v>
+        <v>0.1873067941080391</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03015983385935965</v>
+        <v>0.02924059230746676</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3685533893.424718</v>
+        <v>4799329416.195847</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1477770023793034</v>
+        <v>0.1474766698774268</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04214391640801123</v>
+        <v>0.04709716999330866</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4596195514.900909</v>
+        <v>4403792804.835087</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2190256695944136</v>
+        <v>0.2014590354190326</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02415267941004045</v>
+        <v>0.02904461790040873</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1697882190.361424</v>
+        <v>1233514099.143321</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1290142266220244</v>
+        <v>0.1405844041898544</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04446929412057841</v>
+        <v>0.044256314039869</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3654710027.599292</v>
+        <v>2924979633.274786</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1363360459302944</v>
+        <v>0.183676960519224</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01739896046025087</v>
+        <v>0.01744617132290087</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1896226629.602132</v>
+        <v>1871421618.073344</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1361159557041942</v>
+        <v>0.1942148730219378</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03733343313191514</v>
+        <v>0.02805561565999507</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4975379210.94416</v>
+        <v>4173334396.669229</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09050588550282405</v>
+        <v>0.1041641538180188</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03708136213160073</v>
+        <v>0.04020687575090521</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2978317596.567532</v>
+        <v>3334989523.979913</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1735729533616212</v>
+        <v>0.1390754714043705</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03323686165992858</v>
+        <v>0.021906379881183</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3354574770.892067</v>
+        <v>3142848507.814168</v>
       </c>
       <c r="F61" t="n">
-        <v>0.150426307801376</v>
+        <v>0.1543785410479129</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0304040823068205</v>
+        <v>0.02754383383091689</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1567901576.781103</v>
+        <v>1918584808.798374</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1793143556165718</v>
+        <v>0.1263056420475023</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04497457066264987</v>
+        <v>0.03076228543333025</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3451145844.857798</v>
+        <v>4131342345.09159</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07267311715128093</v>
+        <v>0.1068928935646523</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04579886967903905</v>
+        <v>0.03103303727697651</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4382398997.524114</v>
+        <v>3360815532.811841</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1423232714723406</v>
+        <v>0.1322330638037706</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02377352696474363</v>
+        <v>0.03111423030390007</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4691051201.775691</v>
+        <v>3807161702.233525</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1223718765000847</v>
+        <v>0.1678085401437163</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02540998721173623</v>
+        <v>0.02944043363043443</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3734607071.44125</v>
+        <v>4938009057.248146</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1346104462526329</v>
+        <v>0.1487025031195905</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04927148678954057</v>
+        <v>0.03459536800248469</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2947587519.476144</v>
+        <v>3215658625.017982</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06639343717045738</v>
+        <v>0.07172965799755408</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05019691198707936</v>
+        <v>0.04800256420788207</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3702693439.061096</v>
+        <v>3687103960.744435</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09710005870816597</v>
+        <v>0.1138467134170393</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03577685037521319</v>
+        <v>0.04371046198225045</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2341356555.859249</v>
+        <v>2030481777.89853</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1575941560952577</v>
+        <v>0.1415083772912483</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05042487861088887</v>
+        <v>0.03628672996374899</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3345267878.493013</v>
+        <v>3708902524.492134</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08514842467713279</v>
+        <v>0.1008031034281382</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04606652707138775</v>
+        <v>0.03793054995966475</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4574868890.714503</v>
+        <v>5107618742.878283</v>
       </c>
       <c r="F71" t="n">
-        <v>0.126626644960705</v>
+        <v>0.1156813101276696</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02766733394737544</v>
+        <v>0.02189464487854568</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2101156973.91368</v>
+        <v>1890746869.184542</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1016598375559541</v>
+        <v>0.06633019879180191</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03227725166515227</v>
+        <v>0.03455078982761953</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3186573846.531198</v>
+        <v>2864458478.913709</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09371373304485929</v>
+        <v>0.0973752941031517</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04362090014025193</v>
+        <v>0.0519007222342685</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2634409885.992852</v>
+        <v>2529345886.472822</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1642422121654801</v>
+        <v>0.1452085111412912</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03391786582861051</v>
+        <v>0.0339616375073029</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1859536898.002875</v>
+        <v>2418809654.995793</v>
       </c>
       <c r="F75" t="n">
-        <v>0.113910056556506</v>
+        <v>0.1247711668035174</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02478374741799907</v>
+        <v>0.02285200148022089</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3922926868.158531</v>
+        <v>4402276122.378614</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08654209848189677</v>
+        <v>0.1143461114709455</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02153682808620191</v>
+        <v>0.03405735797350869</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2302004685.626454</v>
+        <v>2043342916.773567</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1676368209587076</v>
+        <v>0.1353326065993029</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02096162183269327</v>
+        <v>0.02896306919729859</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3233309734.531551</v>
+        <v>3719464935.371755</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09953708429865103</v>
+        <v>0.1304390690543675</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04257267874459002</v>
+        <v>0.03739394864470628</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1219992275.024003</v>
+        <v>1216137831.900573</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1756151915326125</v>
+        <v>0.1557520783259149</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02858409207653206</v>
+        <v>0.03034910990698528</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3837370198.533649</v>
+        <v>3418800393.840334</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09110660253198172</v>
+        <v>0.07016838180810826</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03756471459432398</v>
+        <v>0.02508855152330668</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4156037087.118185</v>
+        <v>5062429579.813684</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1030617402401862</v>
+        <v>0.1255213674992302</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02870457811312733</v>
+        <v>0.02663045146170623</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4610805484.515959</v>
+        <v>5409324394.482636</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1635756172980616</v>
+        <v>0.2082370497796928</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0264342727001246</v>
+        <v>0.0242807320556432</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2385572741.170343</v>
+        <v>2176678767.635076</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1351238922000322</v>
+        <v>0.1224966973251077</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03030649122971421</v>
+        <v>0.03198828955421237</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1909629234.872214</v>
+        <v>1616720376.891284</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07402242537261208</v>
+        <v>0.1130071748130127</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03668269617534394</v>
+        <v>0.04257583447831014</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2688147558.855051</v>
+        <v>3055054838.740794</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1685855742318124</v>
+        <v>0.1117097952295605</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03911539973799676</v>
+        <v>0.05066257756833405</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2633304898.301256</v>
+        <v>2248860079.04874</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1353407900885531</v>
+        <v>0.1539748178259633</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01751749907712732</v>
+        <v>0.02320949259316157</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1006208710.752246</v>
+        <v>1257283612.087348</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1783330494436264</v>
+        <v>0.1584685642055625</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03710361237152564</v>
+        <v>0.03753765409561776</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3596832170.988982</v>
+        <v>2532267213.510024</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1241356587736531</v>
+        <v>0.1370318512542977</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03806977302026537</v>
+        <v>0.03553106434280168</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3408952933.564991</v>
+        <v>3225709557.796655</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1411313042663085</v>
+        <v>0.1350605191853702</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04121206221511901</v>
+        <v>0.03700075500486277</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2085395457.302927</v>
+        <v>2017487659.529842</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09730407473395448</v>
+        <v>0.09697038587328166</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05354392102072454</v>
+        <v>0.05144334937741667</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1861964390.947494</v>
+        <v>1556682735.948682</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1193175560583081</v>
+        <v>0.1467815336481401</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04026870103412961</v>
+        <v>0.0381991227302779</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2125776445.699623</v>
+        <v>2294105171.848401</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09152612166282562</v>
+        <v>0.06838825533822455</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03266837587836283</v>
+        <v>0.03276562463065803</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3670196746.193254</v>
+        <v>4773834360.437745</v>
       </c>
       <c r="F93" t="n">
-        <v>0.140242723902486</v>
+        <v>0.1118486938028777</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05054015942030024</v>
+        <v>0.03742855997257103</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1952857938.681268</v>
+        <v>2312376789.383558</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1230197329769243</v>
+        <v>0.1532043543948903</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03565864793298942</v>
+        <v>0.02910819481893946</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3283474569.598498</v>
+        <v>2047172180.853913</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08575182092879684</v>
+        <v>0.09637087277254286</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05264841702270752</v>
+        <v>0.04128631534204462</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1921238858.423716</v>
+        <v>2158367193.785821</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1029165488949959</v>
+        <v>0.136428374987924</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04294817521245701</v>
+        <v>0.04239097142349666</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5068838928.683852</v>
+        <v>3749736993.404254</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1297674350015325</v>
+        <v>0.1733074739671314</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02370710871298325</v>
+        <v>0.02161728072675576</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3384107966.741431</v>
+        <v>2859065156.293905</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08626735091078064</v>
+        <v>0.1288840027259391</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02434919186655396</v>
+        <v>0.02031771710968817</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2074009920.644753</v>
+        <v>2301068803.979538</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1011108484295695</v>
+        <v>0.1184166204265514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02214334458735883</v>
+        <v>0.02393085261042369</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2952522947.662098</v>
+        <v>4702615801.403381</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1557452128838638</v>
+        <v>0.1384033728009496</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01956397410072849</v>
+        <v>0.02751815185146229</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2904885073.283083</v>
+        <v>2730296012.736124</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1841357950638743</v>
+        <v>0.1684482426178004</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04011144262481636</v>
+        <v>0.05152765196656729</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_463.xlsx
+++ b/output/fit_clients/fit_round_463.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1895791920.049015</v>
+        <v>2369901105.756899</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1024475733437897</v>
+        <v>0.11190052313025</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04222610733802613</v>
+        <v>0.04439988828877636</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2348139500.301948</v>
+        <v>1804588944.840282</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1770756278526745</v>
+        <v>0.1472020761179219</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0447863625328914</v>
+        <v>0.03107169398301301</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5038227316.975981</v>
+        <v>4200170531.581084</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1047158421336495</v>
+        <v>0.1130685922066926</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02934737385418087</v>
+        <v>0.02926119879009604</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>235</v>
+      </c>
+      <c r="J4" t="n">
+        <v>462</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30.75836871132129</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3377082656.467913</v>
+        <v>2696145588.319704</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09889622900037616</v>
+        <v>0.08123763668977572</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04857934159289683</v>
+        <v>0.03937936920430362</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>195</v>
+      </c>
+      <c r="J5" t="n">
+        <v>462</v>
+      </c>
+      <c r="K5" t="n">
+        <v>23.13139275148524</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2396494880.414517</v>
+        <v>2618804176.457642</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1212613978431556</v>
+        <v>0.1001091764297758</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04870689769165267</v>
+        <v>0.05649721435729432</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3050449740.417223</v>
+        <v>1903547002.99159</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1010226677267941</v>
+        <v>0.09983819886678698</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04713414459294428</v>
+        <v>0.04682442986436543</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2720187614.494905</v>
+        <v>3662937155.005115</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2204468245538005</v>
+        <v>0.2172799039950138</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02329036218558427</v>
+        <v>0.02425750260460547</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>130</v>
+      </c>
+      <c r="J8" t="n">
+        <v>463</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1555081132.069432</v>
+        <v>1871465986.997042</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1216862810426904</v>
+        <v>0.1812112676868428</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03322478469457799</v>
+        <v>0.0370201931449428</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5371335677.330406</v>
+        <v>5724442150.925174</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1853191144069247</v>
+        <v>0.168650677753496</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05331998241285667</v>
+        <v>0.04585069361962116</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>357</v>
+      </c>
+      <c r="J10" t="n">
+        <v>462</v>
+      </c>
+      <c r="K10" t="n">
+        <v>32.51911720659218</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3175487295.020377</v>
+        <v>3789447799.880197</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1368431149342211</v>
+        <v>0.1429714518559869</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04614519977006748</v>
+        <v>0.04232810677804064</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>192</v>
+      </c>
+      <c r="J11" t="n">
+        <v>463</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2688933334.790003</v>
+        <v>2139389946.761275</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1488412079482642</v>
+        <v>0.1786441073182643</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03517633021742006</v>
+        <v>0.03376521567785457</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3638651604.616383</v>
+        <v>4016283787.12141</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08591612369671346</v>
+        <v>0.08647825320598006</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02540299775890488</v>
+        <v>0.02717004974952333</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>240</v>
+      </c>
+      <c r="J13" t="n">
+        <v>463</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2450877879.291343</v>
+        <v>3147488644.246724</v>
       </c>
       <c r="F14" t="n">
-        <v>0.164522191088516</v>
+        <v>0.1413356203251865</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03302886518030341</v>
+        <v>0.04412882714634319</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>104</v>
+      </c>
+      <c r="J14" t="n">
+        <v>463</v>
+      </c>
+      <c r="K14" t="n">
+        <v>44.45174838530811</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1669316948.690277</v>
+        <v>1715843186.705928</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07747954085906865</v>
+        <v>0.09548699491153546</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0412464305839721</v>
+        <v>0.04765973030827586</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2441885662.888132</v>
+        <v>2740870463.889187</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07842949490423076</v>
+        <v>0.09721501018714443</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03609749761484958</v>
+        <v>0.03706300376001452</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4522268660.150842</v>
+        <v>4710173553.842259</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1400596253936497</v>
+        <v>0.1732350304602017</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03557457685528487</v>
+        <v>0.03924997123550895</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>226</v>
+      </c>
+      <c r="J17" t="n">
+        <v>463</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1069,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3985436916.147211</v>
+        <v>3248813951.547807</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1817127619691545</v>
+        <v>0.1349269899521839</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02412139589075431</v>
+        <v>0.03201193045848853</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>124</v>
+      </c>
+      <c r="J18" t="n">
+        <v>463</v>
+      </c>
+      <c r="K18" t="n">
+        <v>41.81583226024858</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1239130740.37915</v>
+        <v>1197318991.272271</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1752084329810498</v>
+        <v>0.1882344059822136</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02657793713491917</v>
+        <v>0.01707848185137342</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1962264281.335948</v>
+        <v>2424689952.676592</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1402633082988519</v>
+        <v>0.1482574867199783</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02442708220170819</v>
+        <v>0.0196783856087116</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1860032420.715186</v>
+        <v>1883765452.408862</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08396272254275206</v>
+        <v>0.09625643275766695</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04233963039941788</v>
+        <v>0.03204859341572296</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3876942050.489416</v>
+        <v>3089913185.351022</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1053675358664788</v>
+        <v>0.1312638178220929</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03886482408221513</v>
+        <v>0.03837523529999082</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>133</v>
+      </c>
+      <c r="J22" t="n">
+        <v>463</v>
+      </c>
+      <c r="K22" t="n">
+        <v>40.14170803875856</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1544724092.354925</v>
+        <v>1232547603.033444</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1580893376488048</v>
+        <v>0.1378274798838915</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05196130311586855</v>
+        <v>0.03490855710627225</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2557808441.049157</v>
+        <v>3052421905.957658</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1021519462569928</v>
+        <v>0.1413964494392507</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02718389878682223</v>
+        <v>0.03470745603473693</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>147</v>
+      </c>
+      <c r="J24" t="n">
+        <v>462</v>
+      </c>
+      <c r="K24" t="n">
+        <v>31.94507941113476</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1402334703.309832</v>
+        <v>984454120.5110494</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07686096550707275</v>
+        <v>0.08330234355299855</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02085683419362219</v>
+        <v>0.0222331703500444</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1064381364.656268</v>
+        <v>957707763.2418125</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08896087909690191</v>
+        <v>0.07917892568287044</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02453783621494207</v>
+        <v>0.02550218698953199</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4657641536.963583</v>
+        <v>4267169899.410945</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1195376107759565</v>
+        <v>0.09742269506738549</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02639624131758332</v>
+        <v>0.02493823570443998</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>203</v>
+      </c>
+      <c r="J27" t="n">
+        <v>463</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1419,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2551626043.032742</v>
+        <v>2536227771.549614</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1152988095251131</v>
+        <v>0.1274220267854712</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03700139097754211</v>
+        <v>0.04476960246817181</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>115</v>
+      </c>
+      <c r="J28" t="n">
+        <v>462</v>
+      </c>
+      <c r="K28" t="n">
+        <v>29.91295999398196</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1456,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3737419673.244658</v>
+        <v>5839769825.7832</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09858831330752525</v>
+        <v>0.1147404243354379</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04139982775444379</v>
+        <v>0.03985316528332239</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>372</v>
+      </c>
+      <c r="J29" t="n">
+        <v>463</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2140037253.343286</v>
+        <v>1943531124.229939</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1175932545286703</v>
+        <v>0.1348428724775804</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02977783080894001</v>
+        <v>0.03115409815786309</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1079693335.332525</v>
+        <v>1218129100.800901</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09488861557746861</v>
+        <v>0.0740336308404094</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03520880519189277</v>
+        <v>0.03510691850595865</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1653945306.661008</v>
+        <v>1479126795.744151</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1094802157411904</v>
+        <v>0.1192269561997451</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02465750396343744</v>
+        <v>0.02560088225219738</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2130843115.004111</v>
+        <v>2670775365.324627</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1363706833439387</v>
+        <v>0.1534409876675081</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04372205092498634</v>
+        <v>0.05571291535041307</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1210293784.669534</v>
+        <v>1021806802.710266</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09839754808683533</v>
+        <v>0.09504815533803453</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02489622248075394</v>
+        <v>0.02746295096415868</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>821219143.223812</v>
+        <v>955249400.9283241</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09612328675341585</v>
+        <v>0.09414537571921459</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03730849168106384</v>
+        <v>0.03033446494935826</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1707,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2108743728.316723</v>
+        <v>2552131770.704742</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1349326512187376</v>
+        <v>0.1597356126664508</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02645433992838309</v>
+        <v>0.02343968251948511</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1857485820.114621</v>
+        <v>1881904478.411666</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1094855298786076</v>
+        <v>0.08539882465800762</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02936640512728228</v>
+        <v>0.02927470651474507</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1701668581.502661</v>
+        <v>1800581754.015804</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09838826492434841</v>
+        <v>0.1205673459923135</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03694382485926838</v>
+        <v>0.02463857336115164</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1812,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2052393497.4646</v>
+        <v>1963522049.025068</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1745063994196413</v>
+        <v>0.1236151075130622</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03117275025682934</v>
+        <v>0.0201224405476098</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1541280075.828133</v>
+        <v>1505561616.213271</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1031737585827477</v>
+        <v>0.1242301634184256</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04731042866153597</v>
+        <v>0.04915034934923537</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1882,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2724957605.351949</v>
+        <v>2046182697.137434</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1324843871754244</v>
+        <v>0.1240354327682983</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04233961845395919</v>
+        <v>0.04108567306681728</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1911,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3419974838.330627</v>
+        <v>3535198235.835801</v>
       </c>
       <c r="F42" t="n">
-        <v>0.081695163865902</v>
+        <v>0.1176716017991629</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0411763637266274</v>
+        <v>0.03138287186885672</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>203</v>
+      </c>
+      <c r="J42" t="n">
+        <v>463</v>
+      </c>
+      <c r="K42" t="n">
+        <v>38.81640348332908</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2582441337.254377</v>
+        <v>2434925852.497712</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1607474277530587</v>
+        <v>0.1235130907185087</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02462063534245599</v>
+        <v>0.02060311299000024</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2177539413.783906</v>
+        <v>1919605650.479615</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07050826593875742</v>
+        <v>0.07876005916737479</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03200696195558259</v>
+        <v>0.02843129923481365</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1797814108.230571</v>
+        <v>2401154254.953909</v>
       </c>
       <c r="F45" t="n">
-        <v>0.156794083567162</v>
+        <v>0.175390914650543</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04293621863659607</v>
+        <v>0.05160781382169653</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2053,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4729776739.691221</v>
+        <v>5393635656.046527</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1694341567408342</v>
+        <v>0.1330787451267766</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0501957814098738</v>
+        <v>0.04249548001492835</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>274</v>
+      </c>
+      <c r="J46" t="n">
+        <v>463</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2094,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4699696550.298951</v>
+        <v>4918096927.5707</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1898371669636825</v>
+        <v>0.1435192859622535</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03959247499848411</v>
+        <v>0.03779070341525115</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>209</v>
+      </c>
+      <c r="J47" t="n">
+        <v>462</v>
+      </c>
+      <c r="K47" t="n">
+        <v>31.37525084503311</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2131,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3699152835.296299</v>
+        <v>3414900120.469234</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07765622049763157</v>
+        <v>0.0728091188678774</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03358939998446858</v>
+        <v>0.02986218002834436</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>231</v>
+      </c>
+      <c r="J48" t="n">
+        <v>461</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1256537940.569785</v>
+        <v>1369079200.977466</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1456037878095961</v>
+        <v>0.1351590260017444</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04430891958430815</v>
+        <v>0.04454870870700402</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2919210573.937992</v>
+        <v>2617620617.665611</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1680971686546579</v>
+        <v>0.1320346182319436</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03428519736373421</v>
+        <v>0.04495240786619312</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>165</v>
+      </c>
+      <c r="J50" t="n">
+        <v>461</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1233413965.978467</v>
+        <v>999812092.3109107</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1919465393814488</v>
+        <v>0.1690757572704059</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04802091377514452</v>
+        <v>0.0430618624398696</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4564721019.258837</v>
+        <v>3972266006.224504</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1034447225989318</v>
+        <v>0.1051128557755767</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04874716915655228</v>
+        <v>0.05504838030774406</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>262</v>
+      </c>
+      <c r="J52" t="n">
+        <v>463</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2840607634.953419</v>
+        <v>3567360726.653369</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1873067941080391</v>
+        <v>0.1975312353608339</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02924059230746676</v>
+        <v>0.02666927707842148</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>71</v>
+      </c>
+      <c r="J53" t="n">
+        <v>457</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4799329416.195847</v>
+        <v>3871474157.302602</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1474766698774268</v>
+        <v>0.1412805512180064</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04709716999330866</v>
+        <v>0.03966328860983531</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>245</v>
+      </c>
+      <c r="J54" t="n">
+        <v>463</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4403792804.835087</v>
+        <v>3432864554.819447</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2014590354190326</v>
+        <v>0.1952162751332756</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02904461790040873</v>
+        <v>0.03189526497935189</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>230</v>
+      </c>
+      <c r="J55" t="n">
+        <v>461</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1233514099.143321</v>
+        <v>1432744172.70981</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1405844041898544</v>
+        <v>0.101599134707632</v>
       </c>
       <c r="G56" t="n">
-        <v>0.044256314039869</v>
+        <v>0.05137589158422273</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2924979633.274786</v>
+        <v>4500993597.61202</v>
       </c>
       <c r="F57" t="n">
-        <v>0.183676960519224</v>
+        <v>0.1812276481041754</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01744617132290087</v>
+        <v>0.01827834785304179</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>197</v>
+      </c>
+      <c r="J57" t="n">
+        <v>463</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1871421618.073344</v>
+        <v>1386991799.191491</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1942148730219378</v>
+        <v>0.1587046079265105</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02805561565999507</v>
+        <v>0.03110773245433541</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4173334396.669229</v>
+        <v>4673639699.475023</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1041641538180188</v>
+        <v>0.1096390601584671</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04020687575090521</v>
+        <v>0.04999161334049058</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>227</v>
+      </c>
+      <c r="J59" t="n">
+        <v>462</v>
+      </c>
+      <c r="K59" t="n">
+        <v>31.45467082405875</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3334989523.979913</v>
+        <v>3597754277.555292</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1390754714043705</v>
+        <v>0.135087402325007</v>
       </c>
       <c r="G60" t="n">
-        <v>0.021906379881183</v>
+        <v>0.02992915449171235</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>88</v>
+      </c>
+      <c r="J60" t="n">
+        <v>463</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3142848507.814168</v>
+        <v>2933181511.153876</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1543785410479129</v>
+        <v>0.1539022968720103</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02754383383091689</v>
+        <v>0.02165795806174122</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1918584808.798374</v>
+        <v>1618519725.27563</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1263056420475023</v>
+        <v>0.1715567488435353</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03076228543333025</v>
+        <v>0.03943251222488995</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4131342345.09159</v>
+        <v>5210208328.755576</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1068928935646523</v>
+        <v>0.09157341518368885</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03103303727697651</v>
+        <v>0.03694598797977554</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>232</v>
+      </c>
+      <c r="J63" t="n">
+        <v>463</v>
+      </c>
+      <c r="K63" t="n">
+        <v>32.82899079553022</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3360815532.811841</v>
+        <v>4688155311.603233</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1322330638037706</v>
+        <v>0.1889210106072234</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03111423030390007</v>
+        <v>0.0308010760418726</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>232</v>
+      </c>
+      <c r="J64" t="n">
+        <v>462</v>
+      </c>
+      <c r="K64" t="n">
+        <v>32.64665725556646</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3807161702.233525</v>
+        <v>5741848149.527598</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1678085401437163</v>
+        <v>0.114613201477899</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02944043363043443</v>
+        <v>0.0256346266044886</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>329</v>
+      </c>
+      <c r="J65" t="n">
+        <v>462</v>
+      </c>
+      <c r="K65" t="n">
+        <v>31.21169284945692</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4938009057.248146</v>
+        <v>4850470587.693878</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1487025031195905</v>
+        <v>0.14920607885159</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03459536800248469</v>
+        <v>0.04993324067493144</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>228</v>
+      </c>
+      <c r="J66" t="n">
+        <v>463</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3215658625.017982</v>
+        <v>2179879035.949007</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07172965799755408</v>
+        <v>0.0820978227363264</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04800256420788207</v>
+        <v>0.03709859355619235</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3687103960.744435</v>
+        <v>3848578478.583374</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1138467134170393</v>
+        <v>0.1508929422701933</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04371046198225045</v>
+        <v>0.04978559368720044</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>252</v>
+      </c>
+      <c r="J68" t="n">
+        <v>462</v>
+      </c>
+      <c r="K68" t="n">
+        <v>31.27924349927866</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2030481777.89853</v>
+        <v>2442223174.230615</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1415083772912483</v>
+        <v>0.1602826010700903</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03628672996374899</v>
+        <v>0.04736401790154399</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3708902524.492134</v>
+        <v>3349212689.865889</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1008031034281382</v>
+        <v>0.07155025358232404</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03793054995966475</v>
+        <v>0.04355770667701298</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>67</v>
+      </c>
+      <c r="J70" t="n">
+        <v>459</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5107618742.878283</v>
+        <v>4116787904.538394</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1156813101276696</v>
+        <v>0.1612430247355802</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02189464487854568</v>
+        <v>0.02906305943985701</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>315</v>
+      </c>
+      <c r="J71" t="n">
+        <v>463</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1890746869.184542</v>
+        <v>1751202263.080682</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06633019879180191</v>
+        <v>0.08642548747760691</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03455078982761953</v>
+        <v>0.04797355755632882</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2864458478.913709</v>
+        <v>3435672430.39881</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0973752941031517</v>
+        <v>0.07981546913407639</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0519007222342685</v>
+        <v>0.03916534072085832</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>454</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2529345886.472822</v>
+        <v>3756804283.279181</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1452085111412912</v>
+        <v>0.1794889472326582</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0339616375073029</v>
+        <v>0.02465092497785238</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>134</v>
+      </c>
+      <c r="J74" t="n">
+        <v>463</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2418809654.995793</v>
+        <v>2121996683.91009</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1247711668035174</v>
+        <v>0.1082963188528831</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02285200148022089</v>
+        <v>0.03664927995373153</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4402276122.378614</v>
+        <v>3555890324.738644</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1143461114709455</v>
+        <v>0.09705773393627973</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03405735797350869</v>
+        <v>0.03103487523025165</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>221</v>
+      </c>
+      <c r="J76" t="n">
+        <v>461</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2043342916.773567</v>
+        <v>1786284873.185326</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1353326065993029</v>
+        <v>0.1603865225939051</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02896306919729859</v>
+        <v>0.02670194823997936</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3719464935.371755</v>
+        <v>3384584184.501549</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1304390690543675</v>
+        <v>0.11636023423799</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03739394864470628</v>
+        <v>0.05486215899857265</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>231</v>
+      </c>
+      <c r="J78" t="n">
+        <v>462</v>
+      </c>
+      <c r="K78" t="n">
+        <v>32.82624107007069</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1216137831.900573</v>
+        <v>1611269944.050128</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1557520783259149</v>
+        <v>0.1490691726272789</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03034910990698528</v>
+        <v>0.02896011957195815</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3418800393.840334</v>
+        <v>4704448088.84687</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07016838180810826</v>
+        <v>0.09376513617402686</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02508855152330668</v>
+        <v>0.03841972017450954</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>226</v>
+      </c>
+      <c r="J80" t="n">
+        <v>462</v>
+      </c>
+      <c r="K80" t="n">
+        <v>27.63229540928633</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5062429579.813684</v>
+        <v>3202318133.789281</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1255213674992302</v>
+        <v>0.1367760365730451</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02663045146170623</v>
+        <v>0.02909454762083713</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>216</v>
+      </c>
+      <c r="J81" t="n">
+        <v>462</v>
+      </c>
+      <c r="K81" t="n">
+        <v>29.7445294588262</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5409324394.482636</v>
+        <v>4646677693.485742</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2082370497796928</v>
+        <v>0.2147788710748033</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0242807320556432</v>
+        <v>0.02125286219657919</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>307</v>
+      </c>
+      <c r="J82" t="n">
+        <v>463</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2176678767.635076</v>
+        <v>1557386828.170834</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1224966973251077</v>
+        <v>0.1432592875491794</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03198828955421237</v>
+        <v>0.0390860533881458</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1616720376.891284</v>
+        <v>1643340439.619529</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1130071748130127</v>
+        <v>0.09144411080598093</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04257583447831014</v>
+        <v>0.04638760558586554</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3055054838.740794</v>
+        <v>3296118738.082967</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1117097952295605</v>
+        <v>0.1587201027973576</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05066257756833405</v>
+        <v>0.05192427383984866</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2248860079.04874</v>
+        <v>2561250192.030196</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1539748178259633</v>
+        <v>0.1251379238388194</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02320949259316157</v>
+        <v>0.02196138566336213</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1257283612.087348</v>
+        <v>1176825459.008992</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1584685642055625</v>
+        <v>0.1885861174745238</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03753765409561776</v>
+        <v>0.03142609210997298</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2532267213.510024</v>
+        <v>3564183411.212061</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1370318512542977</v>
+        <v>0.1573596053971481</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03553106434280168</v>
+        <v>0.0251353427921056</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3225709557.796655</v>
+        <v>2610349910.645791</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1350605191853702</v>
+        <v>0.1282290321835008</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03700075500486277</v>
+        <v>0.03193688265544229</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2017487659.529842</v>
+        <v>1360622023.213289</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09697038587328166</v>
+        <v>0.1211321941235783</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05144334937741667</v>
+        <v>0.04262238914793913</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1556682735.948682</v>
+        <v>2073440069.492052</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1467815336481401</v>
+        <v>0.1300051306109416</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0381991227302779</v>
+        <v>0.058686672582209</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2294105171.848401</v>
+        <v>2232060952.573666</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06838825533822455</v>
+        <v>0.09908083199544609</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03276562463065803</v>
+        <v>0.02907135819673681</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4773834360.437745</v>
+        <v>3187752163.642822</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1118486938028777</v>
+        <v>0.09260016176356116</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03742855997257103</v>
+        <v>0.05058982303553373</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>223</v>
+      </c>
+      <c r="J93" t="n">
+        <v>462</v>
+      </c>
+      <c r="K93" t="n">
+        <v>27.78567773703994</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2312376789.383558</v>
+        <v>2021027116.277977</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1532043543948903</v>
+        <v>0.1106432697532793</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02910819481893946</v>
+        <v>0.03188019755112887</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2047172180.853913</v>
+        <v>2386701198.213653</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09637087277254286</v>
+        <v>0.1110434765947846</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04128631534204462</v>
+        <v>0.05125334131944265</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2158367193.785821</v>
+        <v>1584794625.458564</v>
       </c>
       <c r="F96" t="n">
-        <v>0.136428374987924</v>
+        <v>0.1324654903867379</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04239097142349666</v>
+        <v>0.03227680296423544</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3749736993.404254</v>
+        <v>3488573403.349958</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1733074739671314</v>
+        <v>0.1464695415610452</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02161728072675576</v>
+        <v>0.02709949648475049</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>240</v>
+      </c>
+      <c r="J97" t="n">
+        <v>460</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2859065156.293905</v>
+        <v>3135008859.792614</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1288840027259391</v>
+        <v>0.110198240541297</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02031771710968817</v>
+        <v>0.03020921126706789</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>116</v>
+      </c>
+      <c r="J98" t="n">
+        <v>460</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2301068803.979538</v>
+        <v>2625709709.813523</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1184166204265514</v>
+        <v>0.1226622718406311</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02393085261042369</v>
+        <v>0.02917811071844791</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4702615801.403381</v>
+        <v>3269999449.351408</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1384033728009496</v>
+        <v>0.1547635145130105</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02751815185146229</v>
+        <v>0.02449853145948087</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>216</v>
+      </c>
+      <c r="J100" t="n">
+        <v>462</v>
+      </c>
+      <c r="K100" t="n">
+        <v>29.92060283039724</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2730296012.736124</v>
+        <v>2754741214.852366</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1684482426178004</v>
+        <v>0.1801493284001719</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05152765196656729</v>
+        <v>0.04054465145419529</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
